--- a/biology/Zoologie/Agalychnis_hulli/Agalychnis_hulli.xlsx
+++ b/biology/Zoologie/Agalychnis_hulli/Agalychnis_hulli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agalychnis hulli est une espèce d'amphibiens de la famille des Phyllomedusidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agalychnis hulli est une espèce d'amphibiens de la famille des Phyllomedusidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région de Loreto au Pérou[1]. Elle se rencontre à Teniente López dans la province de Loreto à 310 m d'altitude dans le haut bassin amazonien.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Loreto au Pérou. Elle se rencontre à Teniente López dans la province de Loreto à 310 m d'altitude dans le haut bassin amazonien.
 Sa présence est incertaine en Équateur.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 37,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 37,1 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Clark Hull de l'Occidental Petroleum[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Clark Hull de l'Occidental Petroleum.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duellman &amp; Mendelson, 1995 : Amphibians and Reptiles from Northern Departamento Loreto, Peru: Taxonomy and Biogeography. The University of Kansas science bulletin, vol. 55, no 10, p. 329-376 (texte intégral).</t>
         </is>
